--- a/TestData/DotFashion_TestData1.xlsx
+++ b/TestData/DotFashion_TestData1.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6E7E2AF8-F318-4BAF-BF43-DF7714A421C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garvi\eclipse-workspace\DotFashionMobile\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E536FB-0AE1-465E-BFBF-82C7A2464A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{EDD5C1D5-FCA4-4385-A574-8418095D2E8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{EDD5C1D5-FCA4-4385-A574-8418095D2E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="NewRecipePage1" sheetId="1" r:id="rId1"/>
@@ -21,10 +26,8 @@
     <sheet name="MyAccount" sheetId="8" r:id="rId11"/>
     <sheet name="ExperienceBuilder" sheetId="9" r:id="rId12"/>
     <sheet name="HomePage" sheetId="10" r:id="rId13"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="67">
   <si>
     <t>Page</t>
   </si>
@@ -217,6 +220,24 @@
   </si>
   <si>
     <t>ChromeMobile</t>
+  </si>
+  <si>
+    <t>https://uidotfashion.sangria.tech/blog/the-very-best-sports-bras-options-for-yogis-and-zumba-instructors-</t>
+  </si>
+  <si>
+    <t>The Very Best Sports Bras Options for yogis and Zumba instructors.</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>https://uidotfashion.sangria.tech/blog/reasons-why-you-should-get-yourself-a-leather-jacket</t>
+  </si>
+  <si>
+    <t>Reasons why you should get yourself a leather jacket</t>
+  </si>
+  <si>
+    <t>https://uidotbeauty.sangria.tech/category/skin/moisturizer</t>
   </si>
 </sst>
 </file>
@@ -790,17 +811,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32BA7EF-F449-4B2B-9E06-3CA6F3C81A66}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.21875" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
     <col min="4" max="4" width="42.21875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -825,8 +846,8 @@
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
+      <c r="C2" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>31</v>
@@ -839,8 +860,8 @@
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
+      <c r="C3" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>34</v>
@@ -853,11 +874,25 @@
       <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
+      <c r="C4" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -875,6 +910,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1012,18 +1049,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68C07F0-529A-419A-84E6-E455608E79BF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9D70FB-E7EB-457C-B057-549429488BCA}">
   <dimension ref="A1:G2"/>
@@ -1147,7 +1172,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1189,7 +1214,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>25</v>
@@ -1204,8 +1229,52 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1216,7 +1285,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1377,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946832F2-3B11-4E49-BD31-1E40571296DE}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1417,7 +1486,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
@@ -1519,7 +1588,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
